--- a/Program Test -----/test_vectorizer.xlsx
+++ b/Program Test -----/test_vectorizer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,40 +19,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>third</t>
-  </si>
-  <si>
-    <t>this</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>adik</t>
+  </si>
+  <si>
+    <t>ajar</t>
+  </si>
+  <si>
+    <t>aktivitas</t>
+  </si>
+  <si>
+    <t>arti</t>
+  </si>
+  <si>
+    <t>bagai</t>
+  </si>
+  <si>
+    <t>bantu</t>
+  </si>
+  <si>
+    <t>banyak</t>
+  </si>
+  <si>
+    <t>beri</t>
+  </si>
+  <si>
+    <t>bimbing</t>
+  </si>
+  <si>
+    <t>buat</t>
+  </si>
+  <si>
+    <t>butuh</t>
+  </si>
+  <si>
+    <t>cara</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>cukup</t>
+  </si>
+  <si>
+    <t>cuma</t>
+  </si>
+  <si>
+    <t>dalam</t>
+  </si>
+  <si>
+    <t>dapat</t>
+  </si>
+  <si>
+    <t>daring</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>gambar</t>
+  </si>
+  <si>
+    <t>giat</t>
+  </si>
+  <si>
+    <t>gubernur</t>
+  </si>
+  <si>
+    <t>guna</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>hadir</t>
+  </si>
+  <si>
+    <t>harus</t>
+  </si>
+  <si>
+    <t>huhu</t>
+  </si>
+  <si>
+    <t>jadi</t>
+  </si>
+  <si>
+    <t>jatim</t>
+  </si>
+  <si>
+    <t>jenuh</t>
+  </si>
+  <si>
+    <t>kak</t>
+  </si>
+  <si>
+    <t>kampus</t>
+  </si>
+  <si>
+    <t>kasih</t>
+  </si>
+  <si>
+    <t>kerja</t>
+  </si>
+  <si>
+    <t>khofifah</t>
+  </si>
+  <si>
+    <t>kok</t>
+  </si>
+  <si>
+    <t>kondisi</t>
+  </si>
+  <si>
+    <t>kuat</t>
+  </si>
+  <si>
+    <t>kuliah</t>
+  </si>
+  <si>
+    <t>lama</t>
+  </si>
+  <si>
+    <t>lebih</t>
+  </si>
+  <si>
+    <t>lihat</t>
+  </si>
+  <si>
+    <t>mahasiswa</t>
+  </si>
+  <si>
+    <t>masyarakat</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>metode</t>
+  </si>
+  <si>
+    <t>moga</t>
+  </si>
+  <si>
+    <t>mudah</t>
+  </si>
+  <si>
+    <t>muhammadiyah</t>
+  </si>
+  <si>
+    <t>nak</t>
+  </si>
+  <si>
+    <t>oleh</t>
+  </si>
+  <si>
+    <t>paham</t>
+  </si>
+  <si>
+    <t>pandemi</t>
+  </si>
+  <si>
+    <t>peran</t>
+  </si>
+  <si>
+    <t>pihak</t>
+  </si>
+  <si>
+    <t>proses</t>
+  </si>
+  <si>
+    <t>punya</t>
+  </si>
+  <si>
+    <t>rajin</t>
+  </si>
+  <si>
+    <t>rasa</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>rumah</t>
+  </si>
+  <si>
+    <t>sangat</t>
+  </si>
+  <si>
+    <t>sederhana</t>
+  </si>
+  <si>
+    <t>sehat</t>
+  </si>
+  <si>
+    <t>sekali</t>
+  </si>
+  <si>
+    <t>selamat</t>
+  </si>
+  <si>
+    <t>semua</t>
+  </si>
+  <si>
+    <t>senang</t>
+  </si>
+  <si>
+    <t>senyum</t>
+  </si>
+  <si>
+    <t>siap</t>
+  </si>
+  <si>
+    <t>siswa</t>
+  </si>
+  <si>
+    <t>sukarelawan</t>
+  </si>
+  <si>
+    <t>terima</t>
+  </si>
+  <si>
+    <t>tetap</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>tugas</t>
+  </si>
+  <si>
+    <t>tunjuk</t>
+  </si>
+  <si>
+    <t>upaya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +271,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,11 +315,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,173 +623,1671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:CA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="CC7" sqref="CC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="2"/>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>2</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>2</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
